--- a/www/terminologies/ValueSet-jdv-route-of-administration-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-route-of-administration-cisis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -585,10 +585,16 @@
     <t>Voie intraputaminale</t>
   </si>
   <si>
-    <t>420287000</t>
-  </si>
-  <si>
-    <t>Voie intraventriculaire cardiaque</t>
+    <t>20089000</t>
+  </si>
+  <si>
+    <t>Administration cardioplégique</t>
+  </si>
+  <si>
+    <t>20090000</t>
+  </si>
+  <si>
+    <t>voie intradétrusorienne</t>
   </si>
   <si>
     <t/>
@@ -864,7 +870,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1543,15 +1549,23 @@
         <v>192</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>194</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/ValueSet-jdv-route-of-administration-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-route-of-administration-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251028115833</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-10-28T11:58:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-route-of-administration-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-route-of-administration-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251028115833</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:58:33+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
